--- a/data2021-09-21.xlsx
+++ b/data2021-09-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="214">
   <si>
     <t>Restaurant</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>new4</t>
   </si>
   <si>
     <t>나이스치킨바베큐&amp;쌈닭</t>
@@ -1010,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K412"/>
+  <dimension ref="A1:L412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,10 +1053,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>4.4</v>
@@ -1085,10 +1091,13 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>4.8</v>
@@ -1120,10 +1129,13 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>4.6</v>
@@ -1155,10 +1167,13 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4.6</v>
@@ -1190,10 +1205,13 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>4.6</v>
@@ -1225,10 +1243,13 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>4.6</v>
@@ -1260,10 +1281,13 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>4.6</v>
@@ -1295,10 +1319,13 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>4.6</v>
@@ -1330,10 +1357,13 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1365,10 +1395,13 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>4.8</v>
@@ -1400,10 +1433,13 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>4.6</v>
@@ -1435,10 +1471,13 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>4.8</v>
@@ -1470,10 +1509,13 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>4.8</v>
@@ -1505,10 +1547,13 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>4.7</v>
@@ -1540,10 +1585,13 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>4.5</v>
@@ -1575,10 +1623,13 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>4.6</v>
@@ -1610,10 +1661,13 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>4.1</v>
@@ -1645,10 +1699,13 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>4.7</v>
@@ -1680,10 +1737,13 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>4.8</v>
@@ -1715,10 +1775,13 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>4.3</v>
@@ -1750,10 +1813,13 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>4.8</v>
@@ -1785,10 +1851,13 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>4.9</v>
@@ -1820,10 +1889,13 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>4.8</v>
@@ -1855,10 +1927,13 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>4.7</v>
@@ -1890,10 +1965,13 @@
       <c r="K25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>4.9</v>
@@ -1925,10 +2003,13 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1960,10 +2041,13 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>3.8</v>
@@ -1995,10 +2079,13 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2030,10 +2117,13 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>4.6</v>
@@ -2065,10 +2155,13 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2100,10 +2193,13 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -2135,10 +2231,13 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>4.3</v>
@@ -2170,10 +2269,13 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>4.4</v>
@@ -2205,10 +2307,13 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>4.5</v>
@@ -2240,10 +2345,13 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>4.8</v>
@@ -2275,10 +2383,13 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2310,10 +2421,13 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>4.6</v>
@@ -2345,10 +2459,13 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>4.8</v>
@@ -2380,10 +2497,13 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>4.8</v>
@@ -2415,10 +2535,13 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>4.9</v>
@@ -2450,10 +2573,13 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>4.6</v>
@@ -2485,10 +2611,13 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>4.6</v>
@@ -2520,10 +2649,13 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2555,10 +2687,13 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>4.4</v>
@@ -2590,10 +2725,13 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>4.6</v>
@@ -2625,10 +2763,13 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>4.4</v>
@@ -2660,10 +2801,13 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>4.9</v>
@@ -2695,10 +2839,13 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>4.5</v>
@@ -2730,10 +2877,13 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>4.7</v>
@@ -2765,10 +2915,13 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>4.8</v>
@@ -2800,10 +2953,13 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2835,10 +2991,13 @@
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>4.6</v>
@@ -2870,10 +3029,13 @@
       <c r="K53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>4.7</v>
@@ -2905,10 +3067,13 @@
       <c r="K54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -2940,10 +3105,13 @@
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>4.7</v>
@@ -2975,10 +3143,13 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>4.1</v>
@@ -3010,10 +3181,13 @@
       <c r="K57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>4.8</v>
@@ -3045,10 +3219,13 @@
       <c r="K58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -3080,10 +3257,13 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>4.7</v>
@@ -3115,10 +3295,13 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>4.9</v>
@@ -3150,10 +3333,13 @@
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -3185,10 +3371,13 @@
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63">
         <v>4.5</v>
@@ -3220,10 +3409,13 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>4.9</v>
@@ -3255,10 +3447,13 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>4.6</v>
@@ -3290,10 +3485,13 @@
       <c r="K65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>4.5</v>
@@ -3325,10 +3523,13 @@
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>4.5</v>
@@ -3360,10 +3561,13 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>4.9</v>
@@ -3395,10 +3599,13 @@
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>4.6</v>
@@ -3430,10 +3637,13 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>4.1</v>
@@ -3465,10 +3675,13 @@
       <c r="K70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3500,10 +3713,13 @@
       <c r="K71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>4.5</v>
@@ -3535,10 +3751,13 @@
       <c r="K72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>4.5</v>
@@ -3570,10 +3789,13 @@
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>4.9</v>
@@ -3605,10 +3827,13 @@
       <c r="K74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>4.4</v>
@@ -3640,10 +3865,13 @@
       <c r="K75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>4.8</v>
@@ -3675,10 +3903,13 @@
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>4.6</v>
@@ -3710,10 +3941,13 @@
       <c r="K77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>4.7</v>
@@ -3745,10 +3979,13 @@
       <c r="K78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -3780,10 +4017,13 @@
       <c r="K79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>4.9</v>
@@ -3815,10 +4055,13 @@
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3850,10 +4093,13 @@
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -3885,10 +4131,13 @@
       <c r="K82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -3920,10 +4169,13 @@
       <c r="K83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3955,10 +4207,13 @@
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>4.8</v>
@@ -3990,10 +4245,13 @@
       <c r="K85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>4.6</v>
@@ -4025,10 +4283,13 @@
       <c r="K86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B87">
         <v>4.9</v>
@@ -4060,10 +4321,13 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>4.7</v>
@@ -4095,10 +4359,13 @@
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>4.4</v>
@@ -4130,10 +4397,13 @@
       <c r="K89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>4.9</v>
@@ -4165,10 +4435,13 @@
       <c r="K90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4200,10 +4473,13 @@
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>4.8</v>
@@ -4235,10 +4511,13 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>4.8</v>
@@ -4270,10 +4549,13 @@
       <c r="K93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94">
         <v>4.9</v>
@@ -4305,10 +4587,13 @@
       <c r="K94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4340,10 +4625,13 @@
       <c r="K95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>4.8</v>
@@ -4375,10 +4663,13 @@
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97">
         <v>4.8</v>
@@ -4410,10 +4701,13 @@
       <c r="K97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4445,10 +4739,13 @@
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99">
         <v>4.6</v>
@@ -4480,10 +4777,13 @@
       <c r="K99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>4.6</v>
@@ -4515,10 +4815,13 @@
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4550,10 +4853,13 @@
       <c r="K101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>4.8</v>
@@ -4585,10 +4891,13 @@
       <c r="K102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>4.6</v>
@@ -4620,10 +4929,13 @@
       <c r="K103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4655,10 +4967,13 @@
       <c r="K104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>4.5</v>
@@ -4690,10 +5005,13 @@
       <c r="K105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>4.8</v>
@@ -4725,10 +5043,13 @@
       <c r="K106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4760,10 +5081,13 @@
       <c r="K107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>4.6</v>
@@ -4795,10 +5119,13 @@
       <c r="K108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>4.8</v>
@@ -4830,10 +5157,13 @@
       <c r="K109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>4.5</v>
@@ -4865,10 +5195,13 @@
       <c r="K110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>4.9</v>
@@ -4900,10 +5233,13 @@
       <c r="K111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B112">
         <v>4.5</v>
@@ -4935,10 +5271,13 @@
       <c r="K112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4970,10 +5309,13 @@
       <c r="K113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5005,10 +5347,13 @@
       <c r="K114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>4.8</v>
@@ -5040,10 +5385,13 @@
       <c r="K115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>4.4</v>
@@ -5075,10 +5423,13 @@
       <c r="K116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5110,10 +5461,13 @@
       <c r="K117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5145,10 +5499,13 @@
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>4.9</v>
@@ -5180,10 +5537,13 @@
       <c r="K119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>4.8</v>
@@ -5215,10 +5575,13 @@
       <c r="K120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>4.8</v>
@@ -5250,10 +5613,13 @@
       <c r="K121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>4.6</v>
@@ -5285,10 +5651,13 @@
       <c r="K122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>4.3</v>
@@ -5320,10 +5689,13 @@
       <c r="K123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5355,10 +5727,13 @@
       <c r="K124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>4.7</v>
@@ -5390,10 +5765,13 @@
       <c r="K125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>4.3</v>
@@ -5425,10 +5803,13 @@
       <c r="K126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B127">
         <v>4.8</v>
@@ -5460,10 +5841,13 @@
       <c r="K127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>4.7</v>
@@ -5495,10 +5879,13 @@
       <c r="K128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5530,10 +5917,13 @@
       <c r="K129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>4.7</v>
@@ -5565,10 +5955,13 @@
       <c r="K130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B131">
         <v>4.7</v>
@@ -5600,10 +5993,13 @@
       <c r="K131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>4.9</v>
@@ -5635,10 +6031,13 @@
       <c r="K132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>4.6</v>
@@ -5670,10 +6069,13 @@
       <c r="K133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5705,10 +6107,13 @@
       <c r="K134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>4.4</v>
@@ -5740,10 +6145,13 @@
       <c r="K135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>4.7</v>
@@ -5775,10 +6183,13 @@
       <c r="K136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -5810,10 +6221,13 @@
       <c r="K137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B138">
         <v>4.4</v>
@@ -5845,10 +6259,13 @@
       <c r="K138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -5880,10 +6297,13 @@
       <c r="K139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -5915,10 +6335,13 @@
       <c r="K140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141">
         <v>4.6</v>
@@ -5950,10 +6373,13 @@
       <c r="K141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5985,10 +6411,13 @@
       <c r="K142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B143">
         <v>4.8</v>
@@ -6020,10 +6449,13 @@
       <c r="K143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B144">
         <v>4.3</v>
@@ -6055,10 +6487,13 @@
       <c r="K144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B145">
         <v>4.4</v>
@@ -6090,10 +6525,13 @@
       <c r="K145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -6125,10 +6563,13 @@
       <c r="K146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6160,10 +6601,13 @@
       <c r="K147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -6195,10 +6639,13 @@
       <c r="K148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B149">
         <v>4.9</v>
@@ -6230,10 +6677,13 @@
       <c r="K149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -6265,10 +6715,13 @@
       <c r="K150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6300,10 +6753,13 @@
       <c r="K151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -6335,10 +6791,13 @@
       <c r="K152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B153">
         <v>4.5</v>
@@ -6370,10 +6829,13 @@
       <c r="K153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B154">
         <v>4.3</v>
@@ -6405,10 +6867,13 @@
       <c r="K154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B155">
         <v>4.2</v>
@@ -6440,10 +6905,13 @@
       <c r="K155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B156">
         <v>4.7</v>
@@ -6475,10 +6943,13 @@
       <c r="K156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B157">
         <v>4.9</v>
@@ -6510,10 +6981,13 @@
       <c r="K157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -6545,10 +7019,13 @@
       <c r="K158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B159">
         <v>4.3</v>
@@ -6580,10 +7057,13 @@
       <c r="K159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B160">
         <v>4.6</v>
@@ -6615,10 +7095,13 @@
       <c r="K160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B161">
         <v>4.7</v>
@@ -6650,10 +7133,13 @@
       <c r="K161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B162">
         <v>4.4</v>
@@ -6685,10 +7171,13 @@
       <c r="K162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -6720,10 +7209,13 @@
       <c r="K163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -6755,10 +7247,13 @@
       <c r="K164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B165">
         <v>4.4</v>
@@ -6790,10 +7285,13 @@
       <c r="K165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B166">
         <v>4.9</v>
@@ -6825,10 +7323,13 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B167">
         <v>4.8</v>
@@ -6860,10 +7361,13 @@
       <c r="K167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B168">
         <v>4.6</v>
@@ -6895,10 +7399,13 @@
       <c r="K168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B169">
         <v>4.5</v>
@@ -6930,10 +7437,13 @@
       <c r="K169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B170">
         <v>4.3</v>
@@ -6965,10 +7475,13 @@
       <c r="K170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B171">
         <v>4.4</v>
@@ -7000,10 +7513,13 @@
       <c r="K171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B172">
         <v>4.8</v>
@@ -7035,10 +7551,13 @@
       <c r="K172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -7070,10 +7589,13 @@
       <c r="K173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B174">
         <v>4.8</v>
@@ -7105,10 +7627,13 @@
       <c r="K174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B175">
         <v>4.8</v>
@@ -7140,10 +7665,13 @@
       <c r="K175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B176">
         <v>4.3</v>
@@ -7175,10 +7703,13 @@
       <c r="K176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B177">
         <v>4.7</v>
@@ -7210,10 +7741,13 @@
       <c r="K177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B178">
         <v>4.8</v>
@@ -7245,10 +7779,13 @@
       <c r="K178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B179">
         <v>4.6</v>
@@ -7280,10 +7817,13 @@
       <c r="K179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B180">
         <v>4.7</v>
@@ -7315,10 +7855,13 @@
       <c r="K180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B181">
         <v>4.8</v>
@@ -7350,10 +7893,13 @@
       <c r="K181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -7385,10 +7931,13 @@
       <c r="K182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B183">
         <v>4.4</v>
@@ -7420,10 +7969,13 @@
       <c r="K183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B184">
         <v>4.6</v>
@@ -7455,10 +8007,13 @@
       <c r="K184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B185">
         <v>4.7</v>
@@ -7490,10 +8045,13 @@
       <c r="K185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B186">
         <v>4.5</v>
@@ -7525,10 +8083,13 @@
       <c r="K186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B187">
         <v>4.6</v>
@@ -7560,10 +8121,13 @@
       <c r="K187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B188">
         <v>4.8</v>
@@ -7595,10 +8159,13 @@
       <c r="K188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -7630,10 +8197,13 @@
       <c r="K189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B190">
         <v>5</v>
@@ -7665,10 +8235,13 @@
       <c r="K190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B191">
         <v>4.5</v>
@@ -7700,10 +8273,13 @@
       <c r="K191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B192">
         <v>4.5</v>
@@ -7735,10 +8311,13 @@
       <c r="K192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B193">
         <v>4.4</v>
@@ -7770,10 +8349,13 @@
       <c r="K193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B194">
         <v>4.8</v>
@@ -7805,10 +8387,13 @@
       <c r="K194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -7840,10 +8425,13 @@
       <c r="K195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B196">
         <v>4.6</v>
@@ -7875,10 +8463,13 @@
       <c r="K196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B197">
         <v>4.8</v>
@@ -7910,10 +8501,13 @@
       <c r="K197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B198">
         <v>4.6</v>
@@ -7945,10 +8539,13 @@
       <c r="K198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199">
         <v>4.8</v>
@@ -7980,10 +8577,13 @@
       <c r="K199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B200">
         <v>4.8</v>
@@ -8015,10 +8615,13 @@
       <c r="K200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -8050,10 +8653,13 @@
       <c r="K201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B202">
         <v>4.6</v>
@@ -8085,10 +8691,13 @@
       <c r="K202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B203">
         <v>4.4</v>
@@ -8120,10 +8729,13 @@
       <c r="K203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B204">
         <v>4.9</v>
@@ -8155,10 +8767,13 @@
       <c r="K204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -8190,10 +8805,13 @@
       <c r="K205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B206">
         <v>4.8</v>
@@ -8225,10 +8843,13 @@
       <c r="K206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B207">
         <v>4.8</v>
@@ -8260,10 +8881,13 @@
       <c r="K207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B208">
         <v>4.7</v>
@@ -8295,10 +8919,13 @@
       <c r="K208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B209">
         <v>5</v>
@@ -8330,10 +8957,13 @@
       <c r="K209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B210">
         <v>4.6</v>
@@ -8365,10 +8995,13 @@
       <c r="K210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B211">
         <v>4.5</v>
@@ -8400,10 +9033,13 @@
       <c r="K211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B212">
         <v>4.7</v>
@@ -8435,10 +9071,13 @@
       <c r="K212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B213">
         <v>4.8</v>
@@ -8470,10 +9109,13 @@
       <c r="K213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B214">
         <v>4.9</v>
@@ -8505,10 +9147,13 @@
       <c r="K214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B215">
         <v>4.6</v>
@@ -8540,10 +9185,13 @@
       <c r="K215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B216">
         <v>4.8</v>
@@ -8575,10 +9223,13 @@
       <c r="K216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B217">
         <v>4.5</v>
@@ -8610,10 +9261,13 @@
       <c r="K217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B218">
         <v>4.7</v>
@@ -8645,10 +9299,13 @@
       <c r="K218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -8680,10 +9337,13 @@
       <c r="K219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B220">
         <v>4.5</v>
@@ -8715,10 +9375,13 @@
       <c r="K220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B221">
         <v>4</v>
@@ -8750,10 +9413,13 @@
       <c r="K221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B222">
         <v>4.1</v>
@@ -8785,10 +9451,13 @@
       <c r="K222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B223">
         <v>4.1</v>
@@ -8820,10 +9489,13 @@
       <c r="K223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="L223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B224">
         <v>4.6</v>
@@ -8855,10 +9527,13 @@
       <c r="K224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="L224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B225">
         <v>4.3</v>
@@ -8890,10 +9565,13 @@
       <c r="K225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B226">
         <v>5</v>
@@ -8925,10 +9603,13 @@
       <c r="K226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B227">
         <v>4.7</v>
@@ -8960,10 +9641,13 @@
       <c r="K227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B228">
         <v>4.3</v>
@@ -8995,10 +9679,13 @@
       <c r="K228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B229">
         <v>4.8</v>
@@ -9030,10 +9717,13 @@
       <c r="K229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B230">
         <v>4.7</v>
@@ -9065,10 +9755,13 @@
       <c r="K230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B231">
         <v>4.9</v>
@@ -9100,10 +9793,13 @@
       <c r="K231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B232">
         <v>4.7</v>
@@ -9135,10 +9831,13 @@
       <c r="K232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B233">
         <v>4.3</v>
@@ -9170,10 +9869,13 @@
       <c r="K233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B234">
         <v>4</v>
@@ -9205,10 +9907,13 @@
       <c r="K234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B235">
         <v>4.9</v>
@@ -9240,10 +9945,13 @@
       <c r="K235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B236">
         <v>3.8</v>
@@ -9275,10 +9983,13 @@
       <c r="K236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B237">
         <v>5</v>
@@ -9310,10 +10021,13 @@
       <c r="K237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B238">
         <v>3</v>
@@ -9345,10 +10059,13 @@
       <c r="K238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B239">
         <v>4.6</v>
@@ -9380,10 +10097,13 @@
       <c r="K239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="L239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B240">
         <v>5</v>
@@ -9415,10 +10135,13 @@
       <c r="K240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B241">
         <v>4.3</v>
@@ -9450,10 +10173,13 @@
       <c r="K241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B242">
         <v>4.4</v>
@@ -9485,10 +10211,13 @@
       <c r="K242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B243">
         <v>4.9</v>
@@ -9520,10 +10249,13 @@
       <c r="K243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B244">
         <v>4.8</v>
@@ -9555,10 +10287,13 @@
       <c r="K244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B245">
         <v>4.3</v>
@@ -9590,10 +10325,13 @@
       <c r="K245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B246">
         <v>4.5</v>
@@ -9625,10 +10363,13 @@
       <c r="K246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="L246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B247">
         <v>4.7</v>
@@ -9660,10 +10401,13 @@
       <c r="K247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B248">
         <v>4.9</v>
@@ -9695,10 +10439,13 @@
       <c r="K248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -9730,10 +10477,13 @@
       <c r="K249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B250">
         <v>4.9</v>
@@ -9765,10 +10515,13 @@
       <c r="K250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B251">
         <v>4.3</v>
@@ -9800,10 +10553,13 @@
       <c r="K251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B252">
         <v>4.5</v>
@@ -9835,10 +10591,13 @@
       <c r="K252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -9870,10 +10629,13 @@
       <c r="K253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B254">
         <v>4.8</v>
@@ -9905,10 +10667,13 @@
       <c r="K254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B255">
         <v>4.7</v>
@@ -9940,10 +10705,13 @@
       <c r="K255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B256">
         <v>4.8</v>
@@ -9975,10 +10743,13 @@
       <c r="K256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B257">
         <v>4.6</v>
@@ -10010,10 +10781,13 @@
       <c r="K257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -10045,10 +10819,13 @@
       <c r="K258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B259">
         <v>4.8</v>
@@ -10080,10 +10857,13 @@
       <c r="K259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B260">
         <v>4.8</v>
@@ -10115,10 +10895,13 @@
       <c r="K260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="L260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B261">
         <v>4.9</v>
@@ -10150,10 +10933,13 @@
       <c r="K261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="L261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B262">
         <v>4.7</v>
@@ -10185,10 +10971,13 @@
       <c r="K262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:11">
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B263">
         <v>4.6</v>
@@ -10220,10 +11009,13 @@
       <c r="K263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:11">
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -10255,10 +11047,13 @@
       <c r="K264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:11">
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B265">
         <v>4.9</v>
@@ -10290,10 +11085,13 @@
       <c r="K265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11">
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B266">
         <v>4.7</v>
@@ -10325,10 +11123,13 @@
       <c r="K266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11">
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B267">
         <v>4.8</v>
@@ -10360,10 +11161,13 @@
       <c r="K267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B268">
         <v>4.6</v>
@@ -10395,10 +11199,13 @@
       <c r="K268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:11">
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B269">
         <v>4.4</v>
@@ -10430,10 +11237,13 @@
       <c r="K269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11">
+      <c r="L269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B270">
         <v>4.1</v>
@@ -10465,10 +11275,13 @@
       <c r="K270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:11">
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B271">
         <v>4.9</v>
@@ -10500,10 +11313,13 @@
       <c r="K271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:11">
+      <c r="L271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B272">
         <v>4.8</v>
@@ -10535,10 +11351,13 @@
       <c r="K272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:11">
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B273">
         <v>4.1</v>
@@ -10570,10 +11389,13 @@
       <c r="K273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B274">
         <v>4.3</v>
@@ -10605,10 +11427,13 @@
       <c r="K274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:11">
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B275">
         <v>4.7</v>
@@ -10640,10 +11465,13 @@
       <c r="K275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:11">
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B276">
         <v>4.3</v>
@@ -10675,10 +11503,13 @@
       <c r="K276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="L276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B277">
         <v>5</v>
@@ -10710,10 +11541,13 @@
       <c r="K277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B278">
         <v>4.8</v>
@@ -10745,10 +11579,13 @@
       <c r="K278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B279">
         <v>4.3</v>
@@ -10780,10 +11617,13 @@
       <c r="K279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B280">
         <v>5</v>
@@ -10815,10 +11655,13 @@
       <c r="K280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="L280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B281">
         <v>4.8</v>
@@ -10850,10 +11693,13 @@
       <c r="K281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B282">
         <v>5</v>
@@ -10885,10 +11731,13 @@
       <c r="K282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B283">
         <v>5</v>
@@ -10920,10 +11769,13 @@
       <c r="K283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B284">
         <v>4.3</v>
@@ -10955,10 +11807,13 @@
       <c r="K284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:11">
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B285">
         <v>5</v>
@@ -10990,10 +11845,13 @@
       <c r="K285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:11">
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -11025,10 +11883,13 @@
       <c r="K286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:11">
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B287">
         <v>4.3</v>
@@ -11060,10 +11921,13 @@
       <c r="K287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:11">
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B288">
         <v>4.2</v>
@@ -11095,10 +11959,13 @@
       <c r="K288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:11">
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B289">
         <v>4.7</v>
@@ -11130,10 +11997,13 @@
       <c r="K289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:11">
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B290">
         <v>4.3</v>
@@ -11165,10 +12035,13 @@
       <c r="K290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:11">
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B291">
         <v>4.8</v>
@@ -11200,10 +12073,13 @@
       <c r="K291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:11">
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B292">
         <v>4.9</v>
@@ -11235,10 +12111,13 @@
       <c r="K292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:11">
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -11270,10 +12149,13 @@
       <c r="K293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:11">
+      <c r="L293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B294">
         <v>4.5</v>
@@ -11305,10 +12187,13 @@
       <c r="K294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:11">
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B295">
         <v>4.7</v>
@@ -11340,10 +12225,13 @@
       <c r="K295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:11">
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B296">
         <v>4.9</v>
@@ -11375,10 +12263,13 @@
       <c r="K296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11">
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B297">
         <v>4.6</v>
@@ -11410,10 +12301,13 @@
       <c r="K297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:11">
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B298">
         <v>4.8</v>
@@ -11445,10 +12339,13 @@
       <c r="K298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:11">
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B299">
         <v>4.8</v>
@@ -11480,10 +12377,13 @@
       <c r="K299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:11">
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B300">
         <v>4.9</v>
@@ -11515,10 +12415,13 @@
       <c r="K300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:11">
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B301">
         <v>4.9</v>
@@ -11550,10 +12453,13 @@
       <c r="K301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:11">
+      <c r="L301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -11585,10 +12491,13 @@
       <c r="K302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:11">
+      <c r="L302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B303">
         <v>5</v>
@@ -11620,10 +12529,13 @@
       <c r="K303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:11">
+      <c r="L303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B304">
         <v>4.9</v>
@@ -11655,10 +12567,13 @@
       <c r="K304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:11">
+      <c r="L304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B305">
         <v>5</v>
@@ -11690,10 +12605,13 @@
       <c r="K305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:11">
+      <c r="L305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B306">
         <v>5</v>
@@ -11725,10 +12643,13 @@
       <c r="K306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:11">
+      <c r="L306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -11760,10 +12681,13 @@
       <c r="K307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:11">
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B308">
         <v>4.3</v>
@@ -11795,10 +12719,13 @@
       <c r="K308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:11">
+      <c r="L308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -11830,10 +12757,13 @@
       <c r="K309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:11">
+      <c r="L309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B310">
         <v>4.8</v>
@@ -11865,10 +12795,13 @@
       <c r="K310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:11">
+      <c r="L310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -11900,10 +12833,13 @@
       <c r="K311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:11">
+      <c r="L311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B312">
         <v>4.8</v>
@@ -11935,10 +12871,13 @@
       <c r="K312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:11">
+      <c r="L312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B313">
         <v>4.9</v>
@@ -11970,10 +12909,13 @@
       <c r="K313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:11">
+      <c r="L313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -12005,10 +12947,13 @@
       <c r="K314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:11">
+      <c r="L314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -12040,10 +12985,13 @@
       <c r="K315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:11">
+      <c r="L315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B316">
         <v>5</v>
@@ -12075,10 +13023,13 @@
       <c r="K316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:11">
+      <c r="L316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B317">
         <v>5</v>
@@ -12110,10 +13061,13 @@
       <c r="K317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:11">
+      <c r="L317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -12145,10 +13099,13 @@
       <c r="K318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:11">
+      <c r="L318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B319">
         <v>4.6</v>
@@ -12180,10 +13137,13 @@
       <c r="K319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:11">
+      <c r="L319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B320">
         <v>4.6</v>
@@ -12215,10 +13175,13 @@
       <c r="K320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:11">
+      <c r="L320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
       <c r="A321" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B321">
         <v>4.6</v>
@@ -12250,10 +13213,13 @@
       <c r="K321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:11">
+      <c r="L321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
       <c r="A322" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B322">
         <v>4.6</v>
@@ -12285,10 +13251,13 @@
       <c r="K322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:11">
+      <c r="L322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
       <c r="A323" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B323">
         <v>4.8</v>
@@ -12320,10 +13289,13 @@
       <c r="K323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:11">
+      <c r="L323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
       <c r="A324" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B324">
         <v>4.6</v>
@@ -12355,10 +13327,13 @@
       <c r="K324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:11">
+      <c r="L324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
       <c r="A325" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B325">
         <v>4.9</v>
@@ -12390,10 +13365,13 @@
       <c r="K325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:11">
+      <c r="L325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
       <c r="A326" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B326">
         <v>4.6</v>
@@ -12425,10 +13403,13 @@
       <c r="K326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:11">
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
       <c r="A327" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B327">
         <v>4.7</v>
@@ -12460,10 +13441,13 @@
       <c r="K327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:11">
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
       <c r="A328" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B328">
         <v>4.8</v>
@@ -12495,10 +13479,13 @@
       <c r="K328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:11">
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
       <c r="A329" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B329">
         <v>4.8</v>
@@ -12530,10 +13517,13 @@
       <c r="K329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:11">
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
       <c r="A330" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B330">
         <v>4.6</v>
@@ -12565,10 +13555,13 @@
       <c r="K330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:11">
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
       <c r="A331" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B331">
         <v>4.6</v>
@@ -12600,10 +13593,13 @@
       <c r="K331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:11">
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
       <c r="A332" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B332">
         <v>4.7</v>
@@ -12635,10 +13631,13 @@
       <c r="K332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:11">
+      <c r="L332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12">
       <c r="A333" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B333">
         <v>4.6</v>
@@ -12670,10 +13669,13 @@
       <c r="K333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:11">
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12">
       <c r="A334" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B334">
         <v>4.4</v>
@@ -12705,10 +13707,13 @@
       <c r="K334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:11">
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12">
       <c r="A335" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B335">
         <v>4.9</v>
@@ -12740,10 +13745,13 @@
       <c r="K335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:11">
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12">
       <c r="A336" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B336">
         <v>4</v>
@@ -12775,10 +13783,13 @@
       <c r="K336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:11">
+      <c r="L336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12">
       <c r="A337" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B337">
         <v>4.4</v>
@@ -12810,10 +13821,13 @@
       <c r="K337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:11">
+      <c r="L337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12">
       <c r="A338" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -12845,10 +13859,13 @@
       <c r="K338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:11">
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12">
       <c r="A339" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -12880,10 +13897,13 @@
       <c r="K339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:11">
+      <c r="L339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12">
       <c r="A340" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -12915,10 +13935,13 @@
       <c r="K340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:11">
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12">
       <c r="A341" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B341">
         <v>4.6</v>
@@ -12950,10 +13973,13 @@
       <c r="K341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:11">
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
       <c r="A342" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B342">
         <v>4.4</v>
@@ -12985,10 +14011,13 @@
       <c r="K342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:11">
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12">
       <c r="A343" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B343">
         <v>4.8</v>
@@ -13020,10 +14049,13 @@
       <c r="K343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:11">
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12">
       <c r="A344" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B344">
         <v>4.8</v>
@@ -13055,10 +14087,13 @@
       <c r="K344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:11">
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12">
       <c r="A345" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B345">
         <v>4.5</v>
@@ -13090,10 +14125,13 @@
       <c r="K345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:11">
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
       <c r="A346" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B346">
         <v>4.7</v>
@@ -13125,10 +14163,13 @@
       <c r="K346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:11">
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
       <c r="A347" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B347">
         <v>4.9</v>
@@ -13160,10 +14201,13 @@
       <c r="K347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:11">
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12">
       <c r="A348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B348">
         <v>4.6</v>
@@ -13195,10 +14239,13 @@
       <c r="K348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:11">
+      <c r="L348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12">
       <c r="A349" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B349">
         <v>4.8</v>
@@ -13230,10 +14277,13 @@
       <c r="K349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:11">
+      <c r="L349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12">
       <c r="A350" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B350">
         <v>4.8</v>
@@ -13265,10 +14315,13 @@
       <c r="K350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:11">
+      <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
       <c r="A351" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B351">
         <v>4.8</v>
@@ -13300,10 +14353,13 @@
       <c r="K351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:11">
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12">
       <c r="A352" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B352">
         <v>4.6</v>
@@ -13335,10 +14391,13 @@
       <c r="K352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:11">
+      <c r="L352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
       <c r="A353" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B353">
         <v>4.6</v>
@@ -13370,10 +14429,13 @@
       <c r="K353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:11">
+      <c r="L353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
       <c r="A354" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B354">
         <v>4.1</v>
@@ -13405,10 +14467,13 @@
       <c r="K354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:11">
+      <c r="L354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
       <c r="A355" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B355">
         <v>4.7</v>
@@ -13440,10 +14505,13 @@
       <c r="K355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:11">
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
       <c r="A356" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -13475,10 +14543,13 @@
       <c r="K356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:11">
+      <c r="L356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
       <c r="A357" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B357">
         <v>4.5</v>
@@ -13510,10 +14581,13 @@
       <c r="K357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:11">
+      <c r="L357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12">
       <c r="A358" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B358">
         <v>5</v>
@@ -13545,10 +14619,13 @@
       <c r="K358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:11">
+      <c r="L358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12">
       <c r="A359" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B359">
         <v>4.8</v>
@@ -13580,10 +14657,13 @@
       <c r="K359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:11">
+      <c r="L359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12">
       <c r="A360" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -13615,10 +14695,13 @@
       <c r="K360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:11">
+      <c r="L360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12">
       <c r="A361" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B361">
         <v>4.5</v>
@@ -13650,10 +14733,13 @@
       <c r="K361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:11">
+      <c r="L361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
       <c r="A362" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B362">
         <v>4.6</v>
@@ -13685,10 +14771,13 @@
       <c r="K362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:11">
+      <c r="L362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12">
       <c r="A363" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B363">
         <v>4.6</v>
@@ -13720,10 +14809,13 @@
       <c r="K363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:11">
+      <c r="L363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
       <c r="A364" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B364">
         <v>4.6</v>
@@ -13755,10 +14847,13 @@
       <c r="K364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:11">
+      <c r="L364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
       <c r="A365" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B365">
         <v>4.8</v>
@@ -13790,10 +14885,13 @@
       <c r="K365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:11">
+      <c r="L365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
       <c r="A366" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -13825,10 +14923,13 @@
       <c r="K366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:11">
+      <c r="L366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
       <c r="A367" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B367">
         <v>4.8</v>
@@ -13860,10 +14961,13 @@
       <c r="K367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:11">
+      <c r="L367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
       <c r="A368" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B368">
         <v>4.8</v>
@@ -13895,10 +14999,13 @@
       <c r="K368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:11">
+      <c r="L368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
       <c r="A369" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B369">
         <v>4.9</v>
@@ -13930,10 +15037,13 @@
       <c r="K369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:11">
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
       <c r="A370" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B370">
         <v>5</v>
@@ -13965,10 +15075,13 @@
       <c r="K370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:11">
+      <c r="L370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
       <c r="A371" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B371">
         <v>4.4</v>
@@ -14000,10 +15113,13 @@
       <c r="K371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:11">
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
       <c r="A372" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B372">
         <v>4.9</v>
@@ -14035,10 +15151,13 @@
       <c r="K372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:11">
+      <c r="L372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
       <c r="A373" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B373">
         <v>5</v>
@@ -14070,10 +15189,13 @@
       <c r="K373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:11">
+      <c r="L373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
       <c r="A374" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B374">
         <v>4.7</v>
@@ -14105,10 +15227,13 @@
       <c r="K374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:11">
+      <c r="L374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
       <c r="A375" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B375">
         <v>4.8</v>
@@ -14140,10 +15265,13 @@
       <c r="K375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:11">
+      <c r="L375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
       <c r="A376" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B376">
         <v>4.8</v>
@@ -14175,10 +15303,13 @@
       <c r="K376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:11">
+      <c r="L376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
       <c r="A377" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B377">
         <v>4.6</v>
@@ -14210,10 +15341,13 @@
       <c r="K377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:11">
+      <c r="L377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
       <c r="A378" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B378">
         <v>4.3</v>
@@ -14245,10 +15379,13 @@
       <c r="K378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:11">
+      <c r="L378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
       <c r="A379" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B379">
         <v>4.8</v>
@@ -14280,10 +15417,13 @@
       <c r="K379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:11">
+      <c r="L379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
       <c r="A380" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B380">
         <v>5</v>
@@ -14315,10 +15455,13 @@
       <c r="K380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:11">
+      <c r="L380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
       <c r="A381" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B381">
         <v>4.3</v>
@@ -14350,10 +15493,13 @@
       <c r="K381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:11">
+      <c r="L381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
       <c r="A382" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B382">
         <v>5</v>
@@ -14385,10 +15531,13 @@
       <c r="K382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:11">
+      <c r="L382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
       <c r="A383" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B383">
         <v>4.9</v>
@@ -14420,10 +15569,13 @@
       <c r="K383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:11">
+      <c r="L383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
       <c r="A384" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B384">
         <v>4.3</v>
@@ -14455,10 +15607,13 @@
       <c r="K384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:11">
+      <c r="L384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12">
       <c r="A385" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B385">
         <v>4.8</v>
@@ -14490,10 +15645,13 @@
       <c r="K385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:11">
+      <c r="L385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12">
       <c r="A386" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B386">
         <v>4.8</v>
@@ -14525,10 +15683,13 @@
       <c r="K386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:11">
+      <c r="L386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12">
       <c r="A387" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B387">
         <v>4.3</v>
@@ -14560,10 +15721,13 @@
       <c r="K387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:11">
+      <c r="L387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
       <c r="A388" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B388">
         <v>4.6</v>
@@ -14595,10 +15759,13 @@
       <c r="K388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:11">
+      <c r="L388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
       <c r="A389" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B389">
         <v>4.9</v>
@@ -14630,10 +15797,13 @@
       <c r="K389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:11">
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
       <c r="A390" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B390">
         <v>4.9</v>
@@ -14665,10 +15835,13 @@
       <c r="K390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:11">
+      <c r="L390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
       <c r="A391" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B391">
         <v>5</v>
@@ -14700,10 +15873,13 @@
       <c r="K391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:11">
+      <c r="L391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
       <c r="A392" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B392">
         <v>3.8</v>
@@ -14735,10 +15911,13 @@
       <c r="K392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:11">
+      <c r="L392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12">
       <c r="A393" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B393">
         <v>5</v>
@@ -14770,10 +15949,13 @@
       <c r="K393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:11">
+      <c r="L393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
       <c r="A394" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B394">
         <v>5</v>
@@ -14805,10 +15987,13 @@
       <c r="K394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:11">
+      <c r="L394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12">
       <c r="A395" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B395">
         <v>4.8</v>
@@ -14840,10 +16025,13 @@
       <c r="K395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:11">
+      <c r="L395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
       <c r="A396" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B396">
         <v>5</v>
@@ -14875,10 +16063,13 @@
       <c r="K396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:11">
+      <c r="L396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12">
       <c r="A397" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B397">
         <v>4.6</v>
@@ -14910,10 +16101,13 @@
       <c r="K397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:11">
+      <c r="L397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
       <c r="A398" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B398">
         <v>5</v>
@@ -14945,10 +16139,13 @@
       <c r="K398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:11">
+      <c r="L398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
       <c r="A399" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B399">
         <v>5</v>
@@ -14980,10 +16177,13 @@
       <c r="K399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:11">
+      <c r="L399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
       <c r="A400" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -15015,10 +16215,13 @@
       <c r="K400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:11">
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
       <c r="A401" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B401">
         <v>5</v>
@@ -15050,10 +16253,13 @@
       <c r="K401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:11">
+      <c r="L401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
       <c r="A402" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -15085,10 +16291,13 @@
       <c r="K402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:11">
+      <c r="L402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
       <c r="A403" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B403">
         <v>4.3</v>
@@ -15120,10 +16329,13 @@
       <c r="K403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:11">
+      <c r="L403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
       <c r="A404" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B404">
         <v>4.5</v>
@@ -15155,10 +16367,13 @@
       <c r="K404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:11">
+      <c r="L404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
       <c r="A405" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B405">
         <v>4.7</v>
@@ -15190,10 +16405,13 @@
       <c r="K405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:11">
+      <c r="L405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
       <c r="A406" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B406">
         <v>4.9</v>
@@ -15225,10 +16443,13 @@
       <c r="K406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:11">
+      <c r="L406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
       <c r="A407" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B407">
         <v>4.9</v>
@@ -15260,10 +16481,13 @@
       <c r="K407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:11">
+      <c r="L407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
       <c r="A408" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B408">
         <v>4.3</v>
@@ -15295,10 +16519,13 @@
       <c r="K408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:11">
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
       <c r="A409" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B409">
         <v>4.8</v>
@@ -15330,10 +16557,13 @@
       <c r="K409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:11">
+      <c r="L409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
       <c r="A410" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -15365,10 +16595,13 @@
       <c r="K410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:11">
+      <c r="L410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
       <c r="A411" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -15400,10 +16633,13 @@
       <c r="K411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:11">
+      <c r="L411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
       <c r="A412" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -15433,6 +16669,9 @@
         <v>2</v>
       </c>
       <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
         <v>0</v>
       </c>
     </row>
